--- a/DC_Metro_df.xlsx
+++ b/DC_Metro_df.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,9 +650,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="17.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="17.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.96"/>
